--- a/project/learnwell_dataset.xlsx
+++ b/project/learnwell_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DFP2023Quang\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\Group-4-customer-project-\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8645E6CD-2643-46C0-8FCB-651E906310FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF86CFA8-C706-4FE7-A789-50DFB3E373F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="2430" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="124">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1086,9 +1086,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1174,26 +1171,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:DS7" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
-  <autoFilter ref="A1:DS7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="123">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="119" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="117"/>
-    <tableColumn id="9" xr3:uid="{E8BD0F47-09F4-412B-B8D8-C512A013B6B1}" name="Year of birth" dataDxfId="116"/>
-    <tableColumn id="10" xr3:uid="{C86C0721-50FE-42C3-9010-BD73EBD70EAC}" name="Gender" dataDxfId="115"/>
-    <tableColumn id="11" xr3:uid="{83222F98-A7F6-4792-A6EF-7A9A1EB11751}" name="Do you have previous studies or degrees?" dataDxfId="114"/>
-    <tableColumn id="12" xr3:uid="{DB4A332F-3754-4CBA-B14D-116722CD82D8}" name="In which school do you study at HAMK?" dataDxfId="113"/>
-    <tableColumn id="13" xr3:uid="{5EACAAB7-6991-4BA9-9D7B-383D90F2CE76}" name="What is your degree programme in Bioeconomy?" dataDxfId="112"/>
-    <tableColumn id="14" xr3:uid="{7335481C-53D3-4225-9C09-0BE91DE2F813}" name="What is your degree programme in Wellbeing?" dataDxfId="111"/>
-    <tableColumn id="15" xr3:uid="{0F8161C2-3971-4880-ABDC-774AD4140E9F}" name="What is your degree programme in Entrepreneurship, Business and Technology?" dataDxfId="110"/>
-    <tableColumn id="16" xr3:uid="{398F2C5C-79F8-4A0A-8949-BC452D79CCE3}" name="What is your degree programme in Professional Teacher Education?" dataDxfId="109"/>
-    <tableColumn id="17" xr3:uid="{FD6F3A1B-AB2A-45CB-AE00-7EF42A1E66EF}" name="Study mode" dataDxfId="108"/>
-    <tableColumn id="18" xr3:uid="{879ADD84-18E2-4931-93AF-BA25051B68DF}" name="Phase of studies" dataDxfId="107"/>
-    <tableColumn id="7" xr3:uid="{F724156F-9929-44ED-96EA-07A13099E455}" name="lang" dataDxfId="106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:DR7" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+  <autoFilter ref="A1:DR7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="122">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="121"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="119"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="118" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="117"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Last modified time" dataDxfId="116"/>
+    <tableColumn id="9" xr3:uid="{E8BD0F47-09F4-412B-B8D8-C512A013B6B1}" name="Year of birth" dataDxfId="115"/>
+    <tableColumn id="10" xr3:uid="{C86C0721-50FE-42C3-9010-BD73EBD70EAC}" name="Gender" dataDxfId="114"/>
+    <tableColumn id="11" xr3:uid="{83222F98-A7F6-4792-A6EF-7A9A1EB11751}" name="Do you have previous studies or degrees?" dataDxfId="113"/>
+    <tableColumn id="12" xr3:uid="{DB4A332F-3754-4CBA-B14D-116722CD82D8}" name="In which school do you study at HAMK?" dataDxfId="112"/>
+    <tableColumn id="13" xr3:uid="{5EACAAB7-6991-4BA9-9D7B-383D90F2CE76}" name="What is your degree programme in Bioeconomy?" dataDxfId="111"/>
+    <tableColumn id="14" xr3:uid="{7335481C-53D3-4225-9C09-0BE91DE2F813}" name="What is your degree programme in Wellbeing?" dataDxfId="110"/>
+    <tableColumn id="15" xr3:uid="{0F8161C2-3971-4880-ABDC-774AD4140E9F}" name="What is your degree programme in Entrepreneurship, Business and Technology?" dataDxfId="109"/>
+    <tableColumn id="16" xr3:uid="{398F2C5C-79F8-4A0A-8949-BC452D79CCE3}" name="What is your degree programme in Professional Teacher Education?" dataDxfId="108"/>
+    <tableColumn id="17" xr3:uid="{FD6F3A1B-AB2A-45CB-AE00-7EF42A1E66EF}" name="Study mode" dataDxfId="107"/>
+    <tableColumn id="18" xr3:uid="{879ADD84-18E2-4931-93AF-BA25051B68DF}" name="Phase of studies" dataDxfId="106"/>
     <tableColumn id="21" xr3:uid="{8A13087C-2C27-4409-9877-91D2D977C9F9}" name="LP101" dataDxfId="105"/>
     <tableColumn id="22" xr3:uid="{05F0660A-CA3C-4F6F-B70F-E307EF42CA17}" name="LP102" dataDxfId="104"/>
     <tableColumn id="23" xr3:uid="{55247A54-69F5-40A0-9F27-67A18CA6C481}" name="LP103" dataDxfId="103"/>
@@ -1602,32 +1598,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DV7"/>
+  <dimension ref="A1:DU7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="20" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="28.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.5546875" style="1" customWidth="1"/>
-    <col min="22" max="125" width="28.5546875" style="4" customWidth="1"/>
-    <col min="126" max="126" width="49.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="28.5546875" style="1" customWidth="1"/>
-    <col min="128" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16" width="28.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625"/>
+    <col min="21" max="122" width="28.5703125" style="4" customWidth="1"/>
+    <col min="123" max="123" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="28.5703125" style="4" customWidth="1"/>
+    <col min="125" max="125" width="49.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="28.5703125" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:125" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1676,332 +1675,331 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="DT1" s="1"/>
       <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
     </row>
-    <row r="2" spans="1:126" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:125" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2039,16 +2037,16 @@
       <c r="P2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>137</v>
+      <c r="Q2" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="U2" s="8" t="s">
         <v>128</v>
       </c>
@@ -2298,8 +2296,8 @@
       <c r="CY2" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="CZ2" s="8" t="s">
-        <v>128</v>
+      <c r="CZ2" s="4">
+        <v>1</v>
       </c>
       <c r="DA2" s="4">
         <v>1</v>
@@ -2352,17 +2350,16 @@
       <c r="DQ2" s="4">
         <v>1</v>
       </c>
-      <c r="DR2" s="4">
-        <v>1</v>
+      <c r="DR2" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="DT2" s="1"/>
       <c r="DU2" s="1"/>
-      <c r="DV2" s="1"/>
     </row>
-    <row r="3" spans="1:126" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2400,332 +2397,331 @@
       <c r="P3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2</v>
+      </c>
+      <c r="T3" s="8">
+        <v>2</v>
+      </c>
+      <c r="U3" s="8">
+        <v>2</v>
+      </c>
+      <c r="V3" s="8">
+        <v>2</v>
+      </c>
+      <c r="W3" s="8">
+        <v>2</v>
+      </c>
+      <c r="X3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BM3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BR3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BT3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BX3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="8">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CB3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CD3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CH3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CI3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CJ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CK3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CL3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CN3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CO3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CQ3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CR3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CS3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CT3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CU3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CV3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CX3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CY3" s="8">
+        <v>2</v>
+      </c>
+      <c r="CZ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DA3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DB3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DC3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DD3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DF3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DG3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DH3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DI3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DJ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DK3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DM3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DN3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DO3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DQ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="DR3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS3" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="S3" s="8">
-        <v>2</v>
-      </c>
-      <c r="T3" s="4">
-        <v>2</v>
-      </c>
-      <c r="U3" s="8">
-        <v>2</v>
-      </c>
-      <c r="V3" s="8">
-        <v>2</v>
-      </c>
-      <c r="W3" s="8">
-        <v>2</v>
-      </c>
-      <c r="X3" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AY3" s="8">
-        <v>2</v>
-      </c>
-      <c r="AZ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BA3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BB3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BE3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BF3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BG3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BH3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BK3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BM3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BN3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BS3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BT3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BU3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BX3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BY3" s="8">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CB3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CC3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CD3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CE3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CF3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CG3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CH3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CI3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CJ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CK3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CL3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CN3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CO3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CP3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CQ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CR3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CS3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CT3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CU3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CV3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CW3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CX3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CY3" s="8">
-        <v>2</v>
-      </c>
-      <c r="CZ3" s="8">
-        <v>2</v>
-      </c>
-      <c r="DA3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DB3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DC3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DD3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DE3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DF3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DG3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DH3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DI3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DJ3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DK3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DL3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DM3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DN3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DO3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DP3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DQ3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DR3" s="4">
-        <v>2</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="DT3" s="1"/>
       <c r="DU3" s="1"/>
-      <c r="DV3" s="1"/>
     </row>
-    <row r="4" spans="1:126" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2763,332 +2759,331 @@
       <c r="P4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="8">
+        <v>3</v>
+      </c>
+      <c r="R4" s="8">
+        <v>3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>3</v>
+      </c>
+      <c r="T4" s="8">
+        <v>3</v>
+      </c>
+      <c r="U4" s="8">
+        <v>3</v>
+      </c>
+      <c r="V4" s="8">
+        <v>3</v>
+      </c>
+      <c r="W4" s="8">
+        <v>3</v>
+      </c>
+      <c r="X4" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>3</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BD4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BI4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BJ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BL4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BN4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BO4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BP4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BQ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BR4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BS4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BV4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BX4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BY4" s="8">
+        <v>3</v>
+      </c>
+      <c r="BZ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CA4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CB4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CC4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CD4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CE4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CF4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CG4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CH4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CJ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CK4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CM4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CN4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CO4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CP4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CQ4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CR4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CS4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CT4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CU4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CV4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CW4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CX4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CY4" s="8">
+        <v>3</v>
+      </c>
+      <c r="CZ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DA4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DB4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DC4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DD4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DE4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DF4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DG4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DH4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DI4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DJ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DK4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DL4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DM4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DN4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DO4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DP4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DQ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS4" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="R4" s="8">
-        <v>3</v>
-      </c>
-      <c r="S4" s="8">
-        <v>3</v>
-      </c>
-      <c r="T4" s="4">
-        <v>3</v>
-      </c>
-      <c r="U4" s="8">
-        <v>3</v>
-      </c>
-      <c r="V4" s="8">
-        <v>3</v>
-      </c>
-      <c r="W4" s="8">
-        <v>3</v>
-      </c>
-      <c r="X4" s="8">
-        <v>3</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AO4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AT4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AW4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AX4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="8">
-        <v>3</v>
-      </c>
-      <c r="AZ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BA4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BC4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BD4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BF4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BG4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BI4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BJ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BK4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BL4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BM4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BN4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BO4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BP4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BQ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BR4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BS4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BU4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BV4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BW4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BX4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BY4" s="8">
-        <v>3</v>
-      </c>
-      <c r="BZ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CA4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CB4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CC4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CD4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CE4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CF4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CG4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CH4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CI4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CJ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CK4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CM4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CN4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CO4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CP4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CQ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CR4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CS4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CT4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CU4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CV4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CW4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CX4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CY4" s="8">
-        <v>3</v>
-      </c>
-      <c r="CZ4" s="8">
-        <v>3</v>
-      </c>
-      <c r="DA4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DB4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DC4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DD4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DE4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DF4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DG4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DH4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DI4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DJ4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DK4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DL4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DM4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DN4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DO4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DP4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DQ4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DR4" s="4">
-        <v>3</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="DT4" s="1"/>
       <c r="DU4" s="1"/>
-      <c r="DV4" s="1"/>
     </row>
-    <row r="5" spans="1:126" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:125" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3126,332 +3121,331 @@
       <c r="P5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="8">
+        <v>4</v>
+      </c>
+      <c r="R5" s="8">
+        <v>4</v>
+      </c>
+      <c r="S5" s="4">
+        <v>4</v>
+      </c>
+      <c r="T5" s="8">
+        <v>4</v>
+      </c>
+      <c r="U5" s="8">
+        <v>4</v>
+      </c>
+      <c r="V5" s="8">
+        <v>4</v>
+      </c>
+      <c r="W5" s="8">
+        <v>4</v>
+      </c>
+      <c r="X5" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BD5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BE5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BF5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BG5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BI5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BK5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BM5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BN5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BO5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BP5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BQ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BR5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BS5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BT5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BV5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BY5" s="8">
+        <v>4</v>
+      </c>
+      <c r="BZ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CA5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CB5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CC5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CD5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CE5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CF5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CG5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CH5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CI5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CJ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CK5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CL5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CM5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CN5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CO5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CP5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CQ5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CR5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CS5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CT5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CU5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CV5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CW5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CX5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CY5" s="8">
+        <v>4</v>
+      </c>
+      <c r="CZ5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DA5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DB5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DC5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DD5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DE5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DF5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DG5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DH5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DI5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DJ5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DK5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DL5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DM5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DN5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DO5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DP5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DQ5" s="4">
+        <v>4</v>
+      </c>
+      <c r="DR5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS5" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="R5" s="8">
-        <v>4</v>
-      </c>
-      <c r="S5" s="8">
-        <v>4</v>
-      </c>
-      <c r="T5" s="4">
-        <v>4</v>
-      </c>
-      <c r="U5" s="8">
-        <v>4</v>
-      </c>
-      <c r="V5" s="8">
-        <v>4</v>
-      </c>
-      <c r="W5" s="8">
-        <v>4</v>
-      </c>
-      <c r="X5" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AH5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AO5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AQ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AT5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AU5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AV5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AX5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="8">
-        <v>4</v>
-      </c>
-      <c r="AZ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BB5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BC5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BD5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BE5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BF5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BG5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BH5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BI5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BJ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BK5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BL5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BM5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BN5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BO5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BP5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BQ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BR5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BS5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BT5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BU5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BV5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BW5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BX5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BY5" s="8">
-        <v>4</v>
-      </c>
-      <c r="BZ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CA5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CB5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CC5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CD5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CE5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CF5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CG5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CH5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CI5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CJ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CK5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CL5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CM5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CN5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CO5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CP5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CQ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CR5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CS5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CT5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CU5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CV5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CW5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CX5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CY5" s="8">
-        <v>4</v>
-      </c>
-      <c r="CZ5" s="8">
-        <v>4</v>
-      </c>
-      <c r="DA5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DB5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DC5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DD5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DE5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DF5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DG5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DH5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DI5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DJ5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DK5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DL5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DM5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DN5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DO5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DP5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DQ5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DR5" s="4">
-        <v>4</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="DT5" s="1"/>
       <c r="DU5" s="1"/>
-      <c r="DV5" s="1"/>
     </row>
-    <row r="6" spans="1:126" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3489,332 +3483,331 @@
       <c r="P6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="8">
+        <v>5</v>
+      </c>
+      <c r="R6" s="8">
+        <v>5</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+      <c r="T6" s="8">
+        <v>5</v>
+      </c>
+      <c r="U6" s="8">
+        <v>5</v>
+      </c>
+      <c r="V6" s="8">
+        <v>5</v>
+      </c>
+      <c r="W6" s="8">
+        <v>5</v>
+      </c>
+      <c r="X6" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BD6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BI6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BN6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BO6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BP6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BQ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BS6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BV6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BX6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BY6" s="8">
+        <v>5</v>
+      </c>
+      <c r="BZ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CA6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CB6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CC6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CD6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CE6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CF6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CG6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CH6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CI6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CJ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CK6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CL6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CM6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CN6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CO6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CP6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CQ6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CR6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CS6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CT6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CU6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CV6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CW6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CX6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CY6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CZ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DA6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DB6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DC6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DD6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DE6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DF6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DH6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DI6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DJ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DK6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DL6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DM6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DN6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DO6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DP6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DQ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="DR6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS6" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="R6" s="8">
-        <v>5</v>
-      </c>
-      <c r="S6" s="8">
-        <v>5</v>
-      </c>
-      <c r="T6" s="4">
-        <v>5</v>
-      </c>
-      <c r="U6" s="8">
-        <v>5</v>
-      </c>
-      <c r="V6" s="8">
-        <v>5</v>
-      </c>
-      <c r="W6" s="8">
-        <v>5</v>
-      </c>
-      <c r="X6" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AM6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AN6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AO6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AP6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AS6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AT6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AU6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AV6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AW6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AX6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AY6" s="8">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BA6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BB6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BC6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BD6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BE6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BF6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BG6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BH6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BI6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BJ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BK6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BL6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BM6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BN6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BO6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BP6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BQ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BR6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BS6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BT6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BU6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BV6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BW6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BX6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BY6" s="8">
-        <v>5</v>
-      </c>
-      <c r="BZ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CA6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CB6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CC6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CD6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CE6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CF6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CG6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CH6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CI6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CJ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CK6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CL6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CM6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CN6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CO6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CP6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CQ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CR6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CS6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CT6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CU6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CV6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CW6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CX6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CY6" s="8">
-        <v>5</v>
-      </c>
-      <c r="CZ6" s="8">
-        <v>5</v>
-      </c>
-      <c r="DA6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DB6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DC6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DD6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DE6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DF6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DG6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DH6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DI6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DJ6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DK6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DL6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DM6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DN6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DO6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DP6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DQ6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DR6" s="4">
-        <v>5</v>
-      </c>
-      <c r="DS6" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="DT6" s="1"/>
       <c r="DU6" s="1"/>
-      <c r="DV6" s="1"/>
     </row>
-    <row r="7" spans="1:126" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3852,330 +3845,329 @@
       <c r="P7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AR7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AX7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AY7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BG7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BP7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BQ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BT7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BU7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BV7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BZ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CA7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CC7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CD7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CE7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CG7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CH7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CI7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CJ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CK7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CL7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CM7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CN7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CO7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CP7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CQ7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CR7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CS7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CT7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CU7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CV7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CW7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CX7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CY7" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="CZ7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DA7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DB7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DC7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DD7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DE7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DF7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DG7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DH7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DI7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DJ7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DK7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DL7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DM7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DN7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DP7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DQ7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="DR7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS7" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="W7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AP7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AR7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AX7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AY7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BC7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BG7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BH7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BJ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BK7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BM7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BN7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BP7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BQ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BS7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BT7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BU7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BW7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BZ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CA7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CB7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CC7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CE7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CF7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CG7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CH7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CI7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CJ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CK7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CL7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CM7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CN7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CO7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CP7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CQ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CR7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CS7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CT7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CU7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CW7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CX7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CY7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CZ7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="DA7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DB7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DC7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DD7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DE7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DF7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DG7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DH7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DI7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DJ7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DK7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DL7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DM7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DN7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DO7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DP7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DQ7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DR7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DS7" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="DT7" s="1"/>
       <c r="DU7" s="1"/>
-      <c r="DV7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4204,14 +4196,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>152</v>
       </c>
@@ -4243,7 +4235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4257,7 +4249,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4271,7 +4263,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4299,19 +4291,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>134</v>
       </c>

--- a/project/learnwell_dataset.xlsx
+++ b/project/learnwell_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\Group-4-customer-project-\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF86CFA8-C706-4FE7-A789-50DFB3E373F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000EF63-3F09-49DF-9820-9A8D09E7DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2430" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24720" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -468,12 +468,6 @@
     <t>Remote</t>
   </si>
   <si>
-    <t>Student 2</t>
-  </si>
-  <si>
-    <t>Student 3</t>
-  </si>
-  <si>
     <t>Yes, one</t>
   </si>
   <si>
@@ -525,15 +519,6 @@
     <t>Category 8</t>
   </si>
   <si>
-    <t>Student 4</t>
-  </si>
-  <si>
-    <t>Student 5</t>
-  </si>
-  <si>
-    <t>Student 6</t>
-  </si>
-  <si>
     <t>1@hamk.fi</t>
   </si>
   <si>
@@ -549,13 +534,37 @@
     <t>5@hamk.fi</t>
   </si>
   <si>
-    <t>6@hamk.fi</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Opiskelija 1</t>
+    <t>Viktoria</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>Valtteri</t>
+  </si>
+  <si>
+    <t>Marika</t>
+  </si>
+  <si>
+    <t>Nanna</t>
+  </si>
+  <si>
+    <t>231013070944WlNzXQhx@hamk.fi</t>
+  </si>
+  <si>
+    <t>231013082617YbaSO4RQ@hamk.fi</t>
+  </si>
+  <si>
+    <t>231013082630DOZpUrMH@hamk.fi</t>
+  </si>
+  <si>
+    <t>231013082639lrrRq9Ao@hamk.fi</t>
+  </si>
+  <si>
+    <t>231013082649ox4c5gao@hamk.fi</t>
+  </si>
+  <si>
+    <t>Name not saved</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:DR7" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
-  <autoFilter ref="A1:DR7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:DR11" totalsRowShown="0" headerRowDxfId="123" dataDxfId="122">
+  <autoFilter ref="A1:DR11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="122">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="121"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="120"/>
@@ -1598,35 +1607,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU7"/>
+  <dimension ref="A1:DU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="20" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16" width="28.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625"/>
-    <col min="21" max="122" width="28.5703125" style="4" customWidth="1"/>
-    <col min="123" max="123" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="28.5703125" style="4" customWidth="1"/>
-    <col min="125" max="125" width="49.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="28.5703125" style="1" customWidth="1"/>
-    <col min="127" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="4.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="61" width="4.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="86" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="4.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="4.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="94" max="120" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="24.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="50.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="2.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="28.5546875" style="4" customWidth="1"/>
+    <col min="125" max="125" width="49.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="28.5546875" style="1" customWidth="1"/>
+    <col min="127" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:125" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2023,7 @@
       <c r="DT1" s="1"/>
       <c r="DU1" s="1"/>
     </row>
-    <row r="2" spans="1:125" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:125" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2010,10 +2034,10 @@
         <v>45181.997094907405</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="7" t="s">
@@ -2029,7 +2053,7 @@
         <v>125</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>126</v>
@@ -2359,7 +2383,7 @@
       <c r="DT2" s="1"/>
       <c r="DU2" s="1"/>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2370,10 +2394,10 @@
         <v>45182.997094849539</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="7">
@@ -2383,13 +2407,13 @@
         <v>131</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>139</v>
@@ -2397,8 +2421,8 @@
       <c r="P3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>169</v>
+      <c r="Q3" s="8">
+        <v>2</v>
       </c>
       <c r="R3" s="8">
         <v>2</v>
@@ -2721,7 +2745,7 @@
       <c r="DT3" s="1"/>
       <c r="DU3" s="1"/>
     </row>
-    <row r="4" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2732,10 +2756,10 @@
         <v>45183.997094849539</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="7">
@@ -2745,13 +2769,13 @@
         <v>123</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>140</v>
@@ -3083,7 +3107,7 @@
       <c r="DT4" s="1"/>
       <c r="DU4" s="1"/>
     </row>
-    <row r="5" spans="1:125" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:125" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3094,10 +3118,10 @@
         <v>45184.997094849539</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="7" t="s">
@@ -3113,7 +3137,7 @@
         <v>125</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>126</v>
@@ -3445,7 +3469,7 @@
       <c r="DT5" s="1"/>
       <c r="DU5" s="1"/>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3456,10 +3480,10 @@
         <v>45185.997094849539</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="7">
@@ -3469,13 +3493,13 @@
         <v>131</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>139</v>
@@ -3807,383 +3831,1832 @@
       <c r="DT6" s="1"/>
       <c r="DU6" s="1"/>
     </row>
-    <row r="7" spans="1:125" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:125" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5">
-        <v>45186.995520833334</v>
+        <v>45181.995520833334</v>
       </c>
       <c r="C7" s="5">
-        <v>45186.997094849539</v>
+        <v>45181.997094907405</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="7">
-        <v>2002</v>
+      <c r="G7" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>169</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AE7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AF7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AG7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AI7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AJ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AK7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AL7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AM7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AN7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AO7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AP7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AQ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AR7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AS7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AT7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AU7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AV7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AW7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AX7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AY7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="AZ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BA7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BB7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BC7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BD7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BE7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BF7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BG7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BH7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BI7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BJ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BK7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BL7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BM7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BN7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BO7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BP7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BQ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BR7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BS7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BT7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BU7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BV7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BW7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BX7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BY7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="BZ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CA7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CB7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CC7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CD7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CE7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CF7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CG7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CH7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CI7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CJ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CK7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CL7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CM7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CN7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CO7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CP7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CQ7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CR7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CS7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CT7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CU7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CV7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CW7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CX7" s="8" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="CY7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="CZ7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DA7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DB7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DC7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DD7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DE7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DF7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DG7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DH7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DI7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DJ7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DK7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DL7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DM7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DN7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DO7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DP7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="DQ7" s="4" t="s">
-        <v>169</v>
+        <v>128</v>
+      </c>
+      <c r="CZ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DA7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DB7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DC7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DD7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DE7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DF7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DG7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DH7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DI7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DJ7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DK7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DL7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DM7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DN7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DO7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DP7" s="4">
+        <v>1</v>
+      </c>
+      <c r="DQ7" s="4">
+        <v>1</v>
       </c>
       <c r="DR7" s="1" t="s">
         <v>129</v>
       </c>
       <c r="DS7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="DT7" s="1"/>
       <c r="DU7" s="1"/>
+    </row>
+    <row r="8" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45182.995520833334</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45182.997094849539</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7">
+        <v>2001</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>2</v>
+      </c>
+      <c r="R8" s="8">
+        <v>2</v>
+      </c>
+      <c r="S8" s="4">
+        <v>2</v>
+      </c>
+      <c r="T8" s="8">
+        <v>2</v>
+      </c>
+      <c r="U8" s="8">
+        <v>2</v>
+      </c>
+      <c r="V8" s="8">
+        <v>2</v>
+      </c>
+      <c r="W8" s="8">
+        <v>2</v>
+      </c>
+      <c r="X8" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BC8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BD8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BE8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BG8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BH8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BI8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BJ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BK8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BL8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BM8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BN8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BO8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BP8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BQ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BR8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BS8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BT8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BV8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BX8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BY8" s="8">
+        <v>2</v>
+      </c>
+      <c r="BZ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CA8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CB8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CC8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CD8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CE8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CF8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CG8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CH8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CI8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CJ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CK8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CL8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CM8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CN8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CO8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CP8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CQ8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CR8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CS8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CT8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CU8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CV8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CW8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CX8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CY8" s="8">
+        <v>2</v>
+      </c>
+      <c r="CZ8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DA8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DB8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DC8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DD8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DE8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DF8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DG8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DH8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DI8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DJ8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DK8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DL8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DM8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DN8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DO8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DP8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DQ8" s="4">
+        <v>2</v>
+      </c>
+      <c r="DR8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DT8" s="1"/>
+      <c r="DU8" s="1"/>
+    </row>
+    <row r="9" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45183.995520833334</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45183.997094849539</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="7">
+        <v>2002</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>3</v>
+      </c>
+      <c r="R9" s="8">
+        <v>3</v>
+      </c>
+      <c r="S9" s="4">
+        <v>3</v>
+      </c>
+      <c r="T9" s="8">
+        <v>3</v>
+      </c>
+      <c r="U9" s="8">
+        <v>3</v>
+      </c>
+      <c r="V9" s="8">
+        <v>3</v>
+      </c>
+      <c r="W9" s="8">
+        <v>3</v>
+      </c>
+      <c r="X9" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BA9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BB9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BC9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BD9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BE9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BF9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BG9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BH9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BI9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BJ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BK9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BL9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BM9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BN9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BO9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BP9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BQ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BR9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BS9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BT9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BV9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BW9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BX9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BY9" s="8">
+        <v>3</v>
+      </c>
+      <c r="BZ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CA9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CB9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CC9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CD9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CE9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CF9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CG9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CH9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CI9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CJ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CK9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CL9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CM9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CN9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CO9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CP9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CQ9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CR9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CS9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CT9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CU9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CV9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CW9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CX9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CY9" s="8">
+        <v>3</v>
+      </c>
+      <c r="CZ9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DA9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DB9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DC9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DD9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DE9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DF9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DG9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DH9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DI9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DJ9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DK9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DL9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DM9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DN9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DO9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DP9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DQ9" s="4">
+        <v>3</v>
+      </c>
+      <c r="DR9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DT9" s="1"/>
+      <c r="DU9" s="1"/>
+    </row>
+    <row r="10" spans="1:125" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45184.995520833334</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45184.997094849539</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>4</v>
+      </c>
+      <c r="R10" s="8">
+        <v>4</v>
+      </c>
+      <c r="S10" s="4">
+        <v>4</v>
+      </c>
+      <c r="T10" s="8">
+        <v>4</v>
+      </c>
+      <c r="U10" s="8">
+        <v>4</v>
+      </c>
+      <c r="V10" s="8">
+        <v>4</v>
+      </c>
+      <c r="W10" s="8">
+        <v>4</v>
+      </c>
+      <c r="X10" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AT10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>4</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BB10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BD10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BE10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BG10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BH10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BI10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BJ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BK10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BL10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BM10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BN10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BO10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BP10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BQ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BR10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BS10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BT10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BV10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BW10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BX10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BY10" s="8">
+        <v>4</v>
+      </c>
+      <c r="BZ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CA10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CB10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CC10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CD10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CE10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CF10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CG10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CH10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CI10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CJ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CK10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CL10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CM10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CN10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CO10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CP10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CQ10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CR10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CS10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CT10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CU10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CV10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CW10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CX10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CY10" s="8">
+        <v>4</v>
+      </c>
+      <c r="CZ10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DA10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DB10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DC10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DD10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DE10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DF10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DG10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DH10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DI10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DJ10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DK10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DL10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DM10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DN10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DO10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DP10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DQ10" s="4">
+        <v>4</v>
+      </c>
+      <c r="DR10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DT10" s="1"/>
+      <c r="DU10" s="1"/>
+    </row>
+    <row r="11" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45185.995520833334</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45185.997094849539</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="7">
+        <v>2001</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>5</v>
+      </c>
+      <c r="R11" s="8">
+        <v>5</v>
+      </c>
+      <c r="S11" s="4">
+        <v>5</v>
+      </c>
+      <c r="T11" s="8">
+        <v>5</v>
+      </c>
+      <c r="U11" s="8">
+        <v>5</v>
+      </c>
+      <c r="V11" s="8">
+        <v>5</v>
+      </c>
+      <c r="W11" s="8">
+        <v>5</v>
+      </c>
+      <c r="X11" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>5</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BA11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BC11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BD11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BE11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BF11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BG11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BH11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BI11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BJ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BK11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BL11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BM11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BN11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BO11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BP11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BQ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BR11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BS11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BV11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BW11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BX11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BY11" s="8">
+        <v>5</v>
+      </c>
+      <c r="BZ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CA11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CB11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CC11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CD11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CE11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CF11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CG11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CH11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CI11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CJ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CK11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CL11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CM11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CN11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CO11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CP11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CQ11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CR11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CS11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CT11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CU11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CV11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CW11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CX11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CY11" s="8">
+        <v>5</v>
+      </c>
+      <c r="CZ11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DA11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DB11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DC11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DD11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DE11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DF11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DG11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DH11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DI11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DJ11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DK11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DL11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DM11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DN11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DO11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DP11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DQ11" s="4">
+        <v>5</v>
+      </c>
+      <c r="DR11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="DS11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DT11" s="1"/>
+      <c r="DU11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D4A27F44-195D-4D5D-9E0B-311EB0BE8E03}"/>
-    <hyperlink ref="D3:D7" r:id="rId2" display="1@hamk.fi" xr:uid="{991868E0-A939-4657-AF71-AC4F3D658D31}"/>
+    <hyperlink ref="D3:D6" r:id="rId2" display="1@hamk.fi" xr:uid="{991868E0-A939-4657-AF71-AC4F3D658D31}"/>
     <hyperlink ref="D3" r:id="rId3" xr:uid="{91AABD41-3C21-44E0-A1E1-9E414CD153D9}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{FF7719DA-12E8-425E-B5E0-FDD9E09E265B}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{8D3C81F0-6EAA-4196-8592-3486ADB67025}"/>
     <hyperlink ref="D6" r:id="rId6" xr:uid="{6F84C325-7603-4AAB-AF02-A274D567430A}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{2780B91D-6AB6-4426-9C44-3058A3E49AEA}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{F0D6BA93-4771-4A8E-8618-E233DA8BB72D}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{51FCEE2B-A045-4FD8-8E09-962813156B68}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{807C8BF3-872B-4F36-8E6E-268C7D9C841A}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{7DB45F3E-8985-4F45-B660-8EAA76553BAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4196,46 +5669,46 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>159</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4249,7 +5722,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -4263,7 +5736,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4291,19 +5764,19 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>134</v>
       </c>

--- a/project/learnwell_dataset.xlsx
+++ b/project/learnwell_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\team4\Group-4-customer-project-\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD80271-44FB-49F0-B236-8170F2B45ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687EF8A5-0635-4DB6-9796-C543366D9649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="159">
   <si>
     <t>RfDS-0yzc0aVNI8jdDVc7ON6_1XTcIJPlC4ozoEJ8OJUQjJJWFRJMFVFT1cyWVpCNFBXN1NCQlk4RS4u</t>
   </si>
@@ -596,322 +596,322 @@
   </cellStyles>
   <dxfs count="122">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -994,112 +994,112 @@
     <tableColumn id="16" xr3:uid="{398F2C5C-79F8-4A0A-8949-BC452D79CCE3}" name="What is your degree programme in Professional Teacher Education?" dataDxfId="108"/>
     <tableColumn id="17" xr3:uid="{FD6F3A1B-AB2A-45CB-AE00-7EF42A1E66EF}" name="Study mode" dataDxfId="107"/>
     <tableColumn id="18" xr3:uid="{879ADD84-18E2-4931-93AF-BA25051B68DF}" name="Phase of studies" dataDxfId="106"/>
-    <tableColumn id="21" xr3:uid="{8A13087C-2C27-4409-9877-91D2D977C9F9}" name="LP101" dataDxfId="105"/>
-    <tableColumn id="22" xr3:uid="{05F0660A-CA3C-4F6F-B70F-E307EF42CA17}" name="LP102" dataDxfId="104"/>
-    <tableColumn id="23" xr3:uid="{55247A54-69F5-40A0-9F27-67A18CA6C481}" name="LP103" dataDxfId="103"/>
-    <tableColumn id="24" xr3:uid="{88F53364-EA92-4BE5-AD8D-77C70583B08F}" name="LP104" dataDxfId="102"/>
-    <tableColumn id="25" xr3:uid="{78E4F9B6-45BC-426E-AF83-B59401D8DDF8}" name="LP105" dataDxfId="101"/>
-    <tableColumn id="26" xr3:uid="{48F50D37-6229-4E9E-BD5C-7F9DA6A0632F}" name="LP106" dataDxfId="100"/>
-    <tableColumn id="27" xr3:uid="{ABF6278E-C544-4D8C-92A4-AB1F7B92BCF9}" name="LP107" dataDxfId="99"/>
-    <tableColumn id="28" xr3:uid="{347CC639-E492-490A-958F-C86036C62AC1}" name="LP108" dataDxfId="98"/>
-    <tableColumn id="29" xr3:uid="{1C08ACD8-AFE6-468E-A94C-F8AEAD2EA1FB}" name="LP109" dataDxfId="97"/>
-    <tableColumn id="30" xr3:uid="{3C3BA16E-C9B0-43AF-AB62-662D465A20B8}" name="LP110" dataDxfId="96"/>
-    <tableColumn id="31" xr3:uid="{15C01D45-FDCD-4D13-949E-3832CE03CAAE}" name="LP11" dataDxfId="95"/>
-    <tableColumn id="32" xr3:uid="{E8C8C671-2BB2-462D-A949-12BFE2A445CA}" name="LP12" dataDxfId="94"/>
-    <tableColumn id="33" xr3:uid="{19FD7770-7093-4CCA-B609-9B02FAEC01AD}" name="LE101" dataDxfId="93"/>
-    <tableColumn id="34" xr3:uid="{DD0976D4-393D-45E9-861F-759DC55B6503}" name="LE102" dataDxfId="92"/>
-    <tableColumn id="35" xr3:uid="{6564FA18-85B2-4052-9040-C4F5C945A71F}" name="LE103" dataDxfId="91"/>
-    <tableColumn id="36" xr3:uid="{21EFDDF3-E334-431A-903D-46795842101F}" name="LE104" dataDxfId="90"/>
-    <tableColumn id="37" xr3:uid="{B10F1ADB-718A-4FBB-9AF9-B50607B15CE3}" name="LE105" dataDxfId="89"/>
-    <tableColumn id="38" xr3:uid="{4D88D937-B092-4CE2-9215-81097A4F2D59}" name="LE106" dataDxfId="88"/>
-    <tableColumn id="39" xr3:uid="{1C71C8F1-5D15-4F3E-878F-84823890561E}" name="LE107" dataDxfId="87"/>
-    <tableColumn id="40" xr3:uid="{B3FB47CC-A534-41C2-B7FF-6A79D5DFB64F}" name="LE108" dataDxfId="86"/>
-    <tableColumn id="41" xr3:uid="{15160271-E2F8-4AD4-A8C4-9FD5DB816AC2}" name="LE109" dataDxfId="85"/>
-    <tableColumn id="42" xr3:uid="{B069A328-3D5E-45F8-ADC8-C53404DD9BD5}" name="LE110" dataDxfId="84"/>
-    <tableColumn id="43" xr3:uid="{7FCFCBD0-C785-4590-A2F1-C5A2314F1DE8}" name="LE111" dataDxfId="83"/>
-    <tableColumn id="44" xr3:uid="{B3F4E5BF-9D21-4218-AB73-249C4DC0D359}" name="LE112" dataDxfId="82"/>
-    <tableColumn id="45" xr3:uid="{C48E9C5A-EB22-4D9B-A901-15672C2D527C}" name="LE113" dataDxfId="81"/>
-    <tableColumn id="46" xr3:uid="{6598239A-0C5D-4C4C-AC60-28D15C2F547E}" name="LE114" dataDxfId="80"/>
-    <tableColumn id="47" xr3:uid="{B33F3BA9-261D-4359-B794-7B46C6F80950}" name="LE115" dataDxfId="79"/>
-    <tableColumn id="48" xr3:uid="{52FD10F5-6A88-4299-BA4F-DFD09779795E}" name="LE116" dataDxfId="78"/>
-    <tableColumn id="50" xr3:uid="{5962662C-7EC5-433A-A09F-60808658F7D8}" name="LE201" dataDxfId="77"/>
-    <tableColumn id="53" xr3:uid="{62D00A98-26E1-46FC-B488-2C6B89B73E17}" name="LE202" dataDxfId="76"/>
-    <tableColumn id="54" xr3:uid="{66071375-ED8B-4D97-8968-A48A8C0B25E5}" name="LE203" dataDxfId="75"/>
-    <tableColumn id="55" xr3:uid="{C8F77417-1359-4855-BA72-B6BB7C897EE0}" name="LE204" dataDxfId="74"/>
-    <tableColumn id="56" xr3:uid="{DFA51012-F903-414E-BAE8-5E798506F307}" name="LE205" dataDxfId="73"/>
-    <tableColumn id="57" xr3:uid="{72673795-3B4F-463B-934B-CDAB2D310D24}" name="LE206" dataDxfId="72"/>
-    <tableColumn id="58" xr3:uid="{A525EBEC-7886-4536-B5B9-12A4350B2BED}" name="LE207" dataDxfId="71"/>
-    <tableColumn id="59" xr3:uid="{0D13A3A3-C2F5-4FF0-B8DF-0D9AF9F59DCC}" name="LE208" dataDxfId="70"/>
-    <tableColumn id="60" xr3:uid="{691BBFCD-47FD-4019-A9AB-B60353889BEC}" name="LE209" dataDxfId="69"/>
-    <tableColumn id="61" xr3:uid="{E458DDA4-AE54-41F4-A719-7299CE904886}" name="LE210" dataDxfId="68"/>
-    <tableColumn id="62" xr3:uid="{B1508C7E-417E-44DA-BCED-C5B49C912DDA}" name="LE211" dataDxfId="67"/>
-    <tableColumn id="63" xr3:uid="{9D08B29C-C424-4ED4-9C6C-7072ABD58A30}" name="LE301" dataDxfId="66"/>
-    <tableColumn id="64" xr3:uid="{56F11C35-8A4D-457D-A412-FCA6F6A602A5}" name="LE302" dataDxfId="65"/>
-    <tableColumn id="65" xr3:uid="{0D62F6EA-D996-4809-AA55-6EA4F788543B}" name="LE303" dataDxfId="64"/>
-    <tableColumn id="66" xr3:uid="{FCE42208-4047-4E1E-8596-4B932A79A288}" name="LE304" dataDxfId="63"/>
-    <tableColumn id="67" xr3:uid="{21D30A74-5EDD-495F-B56A-7791E2C0E0FD}" name="LE305" dataDxfId="62"/>
-    <tableColumn id="68" xr3:uid="{96D5E903-830D-4303-BADB-5E7891AABBC5}" name="LE306" dataDxfId="61"/>
-    <tableColumn id="69" xr3:uid="{0D109217-4825-468C-AA9D-9585CBEE3DEC}" name="PR101" dataDxfId="60"/>
-    <tableColumn id="70" xr3:uid="{29326CDB-2C00-4687-8466-862032297079}" name="PR102" dataDxfId="59"/>
-    <tableColumn id="71" xr3:uid="{580BC89E-905F-4C98-A7B0-7A1265EFBC93}" name="PR103" dataDxfId="58"/>
-    <tableColumn id="72" xr3:uid="{AFA41761-2E56-4631-BE6B-8ADA9715287B}" name="CD101" dataDxfId="57"/>
-    <tableColumn id="74" xr3:uid="{EA781DAA-3DBB-4A95-A4B0-70507C4A054C}" name="CD102" dataDxfId="56"/>
-    <tableColumn id="75" xr3:uid="{87568FE0-3821-4389-864D-ABC580A2E877}" name="CD103" dataDxfId="55"/>
-    <tableColumn id="76" xr3:uid="{2DD99458-FCC2-4C32-91F2-AF99E074E68E}" name="CD104" dataDxfId="54"/>
-    <tableColumn id="77" xr3:uid="{6741D40A-B7DC-4119-B811-BB7EA40BD2DF}" name="CD105" dataDxfId="53"/>
-    <tableColumn id="78" xr3:uid="{8F633DA4-4842-4A83-A398-D280543D789A}" name="CD106" dataDxfId="52"/>
-    <tableColumn id="79" xr3:uid="{F36FEC86-7A41-4604-B610-DE26AE5E8170}" name="CD107" dataDxfId="51"/>
-    <tableColumn id="80" xr3:uid="{021E0F31-B797-4E59-ABAB-35247F5B11A0}" name="CD108" dataDxfId="50"/>
-    <tableColumn id="81" xr3:uid="{A004071B-0DFB-46DB-8037-24C903B09303}" name="CD201" dataDxfId="49"/>
-    <tableColumn id="82" xr3:uid="{99278668-612E-43A0-893B-9E25A67C74A3}" name="CD202" dataDxfId="48"/>
-    <tableColumn id="83" xr3:uid="{6B5A8EE3-5B75-4948-AC66-2D76A1175A61}" name="CD203" dataDxfId="47"/>
-    <tableColumn id="84" xr3:uid="{881A15AC-76D3-4A51-ADF8-E392A062C888}" name="CD204" dataDxfId="46"/>
-    <tableColumn id="85" xr3:uid="{541FEB8C-5BE5-4020-9C1F-9A0C7501D4BA}" name="CD205" dataDxfId="45"/>
-    <tableColumn id="86" xr3:uid="{9FFD705B-C4F2-441B-A17D-64D62C77A9AB}" name="CD206" dataDxfId="44"/>
-    <tableColumn id="87" xr3:uid="{FE86462B-494D-45C7-B532-1A5DA0847375}" name="CD207" dataDxfId="43"/>
-    <tableColumn id="88" xr3:uid="{77703B33-E70C-4395-95A7-9F60960AA026}" name="CP101" dataDxfId="42"/>
-    <tableColumn id="89" xr3:uid="{A8BF3D01-AC03-4F46-928E-36C9399967F0}" name="CP102" dataDxfId="41"/>
-    <tableColumn id="90" xr3:uid="{C24E21FD-7238-4D17-8845-43893BF8F4B5}" name="CP103" dataDxfId="40"/>
-    <tableColumn id="91" xr3:uid="{2CE5976A-A764-4ABB-8D98-9ED83C2A75E2}" name="CP104" dataDxfId="39"/>
-    <tableColumn id="92" xr3:uid="{262BD9F9-5ED3-4CE4-AD26-2AE8137A230E}" name="EN101" dataDxfId="38"/>
-    <tableColumn id="93" xr3:uid="{03C21A93-BC0F-4CA0-812C-BCECF9D70B6E}" name="SD101" dataDxfId="37"/>
-    <tableColumn id="95" xr3:uid="{7BFE62E8-CE37-4299-975B-3B802A854660}" name="SD102" dataDxfId="36"/>
-    <tableColumn id="96" xr3:uid="{8F223D40-1B18-4EF5-94D8-ED591F44BD58}" name="CO101" dataDxfId="35"/>
-    <tableColumn id="97" xr3:uid="{F5858F0C-A60D-4B75-82C6-725FDEF7FAB8}" name="CO102" dataDxfId="34"/>
-    <tableColumn id="98" xr3:uid="{DD32ABE4-CEEC-40A1-B926-CF0D3CD9F4CF}" name="DS101" dataDxfId="33"/>
-    <tableColumn id="99" xr3:uid="{9228D542-851C-4343-9279-D8BDA4A2E4A5}" name="DS102" dataDxfId="32"/>
-    <tableColumn id="100" xr3:uid="{DDC78852-440D-4835-8B79-A1496EC69420}" name="DS103" dataDxfId="31"/>
-    <tableColumn id="101" xr3:uid="{78120107-FFCF-4908-9A46-5AF11FB65C89}" name="IN101" dataDxfId="30"/>
-    <tableColumn id="102" xr3:uid="{34902EDC-12B2-4042-838F-B6C8D51E4EA8}" name="IN102" dataDxfId="29"/>
-    <tableColumn id="103" xr3:uid="{E22F1327-8EF8-4800-A2B8-094267E712A8}" name="WB101" dataDxfId="28"/>
-    <tableColumn id="104" xr3:uid="{59994C7A-31C9-46C8-BF22-1CE8A72462BB}" name="WB102" dataDxfId="27"/>
-    <tableColumn id="105" xr3:uid="{722FF378-F2DB-4E34-BA22-205CB28E432B}" name="WB103" dataDxfId="26"/>
-    <tableColumn id="106" xr3:uid="{BDB5915F-DA2E-4BC2-8F04-338D3C86DD66}" name="WB104" dataDxfId="25"/>
-    <tableColumn id="107" xr3:uid="{C066FA00-0C49-4E1D-B786-27371169241F}" name="WB105" dataDxfId="24"/>
-    <tableColumn id="108" xr3:uid="{0D8A82BF-FB3E-47E7-AECA-40063FD31061}" name="WB106" dataDxfId="23"/>
-    <tableColumn id="109" xr3:uid="{67856F1A-E12A-45DA-BF52-9E5E3C1B32FE}" name="WB107" dataDxfId="22"/>
-    <tableColumn id="110" xr3:uid="{12596572-763D-44F3-9AFF-CB599CCF10F4}" name="WB108" dataDxfId="21"/>
-    <tableColumn id="111" xr3:uid="{BB8C8EB5-B7D9-4DC2-9189-1D0AB86E0C53}" name="WB109" dataDxfId="20"/>
-    <tableColumn id="112" xr3:uid="{DB667C1C-CC76-4C61-95CD-0E0D59E9594B}" name="WB201" dataDxfId="19"/>
-    <tableColumn id="113" xr3:uid="{C40F1396-990F-45AB-A5E3-69573C3EBECF}" name="WB202" dataDxfId="18"/>
-    <tableColumn id="114" xr3:uid="{ABE7427A-8030-4331-927C-3E386BB34684}" name="WB203" dataDxfId="17"/>
-    <tableColumn id="115" xr3:uid="{9A5C6644-3830-4374-8EE8-B5DC30F51EF4}" name="WB204" dataDxfId="16"/>
-    <tableColumn id="116" xr3:uid="{BDF7F6BC-C213-4754-9A85-3D505D21CA94}" name="WB205" dataDxfId="15"/>
-    <tableColumn id="117" xr3:uid="{0996C05A-08B2-440E-9E91-1C844762F9F7}" name="WB206" dataDxfId="14"/>
-    <tableColumn id="118" xr3:uid="{46FEBBFC-3FC9-46B1-8F1E-F9E71E1DE735}" name="WB207" dataDxfId="13"/>
-    <tableColumn id="119" xr3:uid="{CB953BFE-8E1C-40DB-803B-A0DD0962ADD8}" name="WB301" dataDxfId="12"/>
-    <tableColumn id="120" xr3:uid="{5204FC1C-DA73-47A8-B0FC-1F06D0DBB2CC}" name="WB302" dataDxfId="11"/>
-    <tableColumn id="121" xr3:uid="{73C531B6-3DBA-4A44-81B7-2D4AF7454CEF}" name="WB303" dataDxfId="10"/>
-    <tableColumn id="122" xr3:uid="{7024255C-A29C-4AD4-B8B3-D5192F9BB395}" name="WB304" dataDxfId="9"/>
-    <tableColumn id="123" xr3:uid="{B68143E8-E277-4EDD-92F8-2E14A072ACC0}" name="WB305" dataDxfId="8"/>
-    <tableColumn id="124" xr3:uid="{5A425E72-2450-40B9-B866-AB8A1B8DEE54}" name="WB401" dataDxfId="7"/>
-    <tableColumn id="125" xr3:uid="{58F39DB6-8311-4B74-8EA1-29DB82C6E4E9}" name="WB402" dataDxfId="6"/>
-    <tableColumn id="126" xr3:uid="{3C50A0F6-0E25-4C86-9C6E-E1C6F0FAC933}" name="WB403" dataDxfId="5"/>
-    <tableColumn id="127" xr3:uid="{63F4D054-1BEE-4E65-AE7F-A3B557581BC2}" name="WB404" dataDxfId="4"/>
-    <tableColumn id="128" xr3:uid="{4C6CA186-1202-4882-9139-E00D7D2E8E74}" name="WB405" dataDxfId="3"/>
-    <tableColumn id="129" xr3:uid="{E1075747-9F5A-4EB2-A1A6-36B05AE8E923}" name="WB406" dataDxfId="2"/>
-    <tableColumn id="130" xr3:uid="{50691F4C-8549-4915-B1EA-C4B0DCEDC2C1}" name="I try to see my failings as part of the human condition." dataDxfId="1"/>
-    <tableColumn id="131" xr3:uid="{C4FFEB76-D65B-4A0D-953D-6F15E7201B3A}" name="My answers may be used for research purposes and connected with each other and with other study register data." dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{8A13087C-2C27-4409-9877-91D2D977C9F9}" name="LP101" dataDxfId="104"/>
+    <tableColumn id="22" xr3:uid="{05F0660A-CA3C-4F6F-B70F-E307EF42CA17}" name="LP102" dataDxfId="103"/>
+    <tableColumn id="23" xr3:uid="{55247A54-69F5-40A0-9F27-67A18CA6C481}" name="LP103" dataDxfId="102"/>
+    <tableColumn id="24" xr3:uid="{88F53364-EA92-4BE5-AD8D-77C70583B08F}" name="LP104" dataDxfId="101"/>
+    <tableColumn id="25" xr3:uid="{78E4F9B6-45BC-426E-AF83-B59401D8DDF8}" name="LP105" dataDxfId="100"/>
+    <tableColumn id="26" xr3:uid="{48F50D37-6229-4E9E-BD5C-7F9DA6A0632F}" name="LP106" dataDxfId="99"/>
+    <tableColumn id="27" xr3:uid="{ABF6278E-C544-4D8C-92A4-AB1F7B92BCF9}" name="LP107" dataDxfId="98"/>
+    <tableColumn id="28" xr3:uid="{347CC639-E492-490A-958F-C86036C62AC1}" name="LP108" dataDxfId="97"/>
+    <tableColumn id="29" xr3:uid="{1C08ACD8-AFE6-468E-A94C-F8AEAD2EA1FB}" name="LP109" dataDxfId="96"/>
+    <tableColumn id="30" xr3:uid="{3C3BA16E-C9B0-43AF-AB62-662D465A20B8}" name="LP110" dataDxfId="95"/>
+    <tableColumn id="31" xr3:uid="{15C01D45-FDCD-4D13-949E-3832CE03CAAE}" name="LP11" dataDxfId="94"/>
+    <tableColumn id="32" xr3:uid="{E8C8C671-2BB2-462D-A949-12BFE2A445CA}" name="LP12" dataDxfId="93"/>
+    <tableColumn id="33" xr3:uid="{19FD7770-7093-4CCA-B609-9B02FAEC01AD}" name="LE101" dataDxfId="92"/>
+    <tableColumn id="34" xr3:uid="{DD0976D4-393D-45E9-861F-759DC55B6503}" name="LE102" dataDxfId="91"/>
+    <tableColumn id="35" xr3:uid="{6564FA18-85B2-4052-9040-C4F5C945A71F}" name="LE103" dataDxfId="90"/>
+    <tableColumn id="36" xr3:uid="{21EFDDF3-E334-431A-903D-46795842101F}" name="LE104" dataDxfId="89"/>
+    <tableColumn id="37" xr3:uid="{B10F1ADB-718A-4FBB-9AF9-B50607B15CE3}" name="LE105" dataDxfId="88"/>
+    <tableColumn id="38" xr3:uid="{4D88D937-B092-4CE2-9215-81097A4F2D59}" name="LE106" dataDxfId="87"/>
+    <tableColumn id="39" xr3:uid="{1C71C8F1-5D15-4F3E-878F-84823890561E}" name="LE107" dataDxfId="86"/>
+    <tableColumn id="40" xr3:uid="{B3FB47CC-A534-41C2-B7FF-6A79D5DFB64F}" name="LE108" dataDxfId="85"/>
+    <tableColumn id="41" xr3:uid="{15160271-E2F8-4AD4-A8C4-9FD5DB816AC2}" name="LE109" dataDxfId="84"/>
+    <tableColumn id="42" xr3:uid="{B069A328-3D5E-45F8-ADC8-C53404DD9BD5}" name="LE110" dataDxfId="83"/>
+    <tableColumn id="43" xr3:uid="{7FCFCBD0-C785-4590-A2F1-C5A2314F1DE8}" name="LE111" dataDxfId="82"/>
+    <tableColumn id="44" xr3:uid="{B3F4E5BF-9D21-4218-AB73-249C4DC0D359}" name="LE112" dataDxfId="81"/>
+    <tableColumn id="45" xr3:uid="{C48E9C5A-EB22-4D9B-A901-15672C2D527C}" name="LE113" dataDxfId="80"/>
+    <tableColumn id="46" xr3:uid="{6598239A-0C5D-4C4C-AC60-28D15C2F547E}" name="LE114" dataDxfId="79"/>
+    <tableColumn id="47" xr3:uid="{B33F3BA9-261D-4359-B794-7B46C6F80950}" name="LE115" dataDxfId="78"/>
+    <tableColumn id="48" xr3:uid="{52FD10F5-6A88-4299-BA4F-DFD09779795E}" name="LE116" dataDxfId="77"/>
+    <tableColumn id="50" xr3:uid="{5962662C-7EC5-433A-A09F-60808658F7D8}" name="LE201" dataDxfId="76"/>
+    <tableColumn id="53" xr3:uid="{62D00A98-26E1-46FC-B488-2C6B89B73E17}" name="LE202" dataDxfId="75"/>
+    <tableColumn id="54" xr3:uid="{66071375-ED8B-4D97-8968-A48A8C0B25E5}" name="LE203" dataDxfId="74"/>
+    <tableColumn id="55" xr3:uid="{C8F77417-1359-4855-BA72-B6BB7C897EE0}" name="LE204" dataDxfId="73"/>
+    <tableColumn id="56" xr3:uid="{DFA51012-F903-414E-BAE8-5E798506F307}" name="LE205" dataDxfId="72"/>
+    <tableColumn id="57" xr3:uid="{72673795-3B4F-463B-934B-CDAB2D310D24}" name="LE206" dataDxfId="71"/>
+    <tableColumn id="58" xr3:uid="{A525EBEC-7886-4536-B5B9-12A4350B2BED}" name="LE207" dataDxfId="70"/>
+    <tableColumn id="59" xr3:uid="{0D13A3A3-C2F5-4FF0-B8DF-0D9AF9F59DCC}" name="LE208" dataDxfId="69"/>
+    <tableColumn id="60" xr3:uid="{691BBFCD-47FD-4019-A9AB-B60353889BEC}" name="LE209" dataDxfId="68"/>
+    <tableColumn id="61" xr3:uid="{E458DDA4-AE54-41F4-A719-7299CE904886}" name="LE210" dataDxfId="67"/>
+    <tableColumn id="62" xr3:uid="{B1508C7E-417E-44DA-BCED-C5B49C912DDA}" name="LE211" dataDxfId="66"/>
+    <tableColumn id="63" xr3:uid="{9D08B29C-C424-4ED4-9C6C-7072ABD58A30}" name="LE301" dataDxfId="65"/>
+    <tableColumn id="64" xr3:uid="{56F11C35-8A4D-457D-A412-FCA6F6A602A5}" name="LE302" dataDxfId="64"/>
+    <tableColumn id="65" xr3:uid="{0D62F6EA-D996-4809-AA55-6EA4F788543B}" name="LE303" dataDxfId="63"/>
+    <tableColumn id="66" xr3:uid="{FCE42208-4047-4E1E-8596-4B932A79A288}" name="LE304" dataDxfId="62"/>
+    <tableColumn id="67" xr3:uid="{21D30A74-5EDD-495F-B56A-7791E2C0E0FD}" name="LE305" dataDxfId="61"/>
+    <tableColumn id="68" xr3:uid="{96D5E903-830D-4303-BADB-5E7891AABBC5}" name="LE306" dataDxfId="60"/>
+    <tableColumn id="69" xr3:uid="{0D109217-4825-468C-AA9D-9585CBEE3DEC}" name="PR101" dataDxfId="59"/>
+    <tableColumn id="70" xr3:uid="{29326CDB-2C00-4687-8466-862032297079}" name="PR102" dataDxfId="58"/>
+    <tableColumn id="71" xr3:uid="{580BC89E-905F-4C98-A7B0-7A1265EFBC93}" name="PR103" dataDxfId="57"/>
+    <tableColumn id="72" xr3:uid="{AFA41761-2E56-4631-BE6B-8ADA9715287B}" name="CD101" dataDxfId="56"/>
+    <tableColumn id="74" xr3:uid="{EA781DAA-3DBB-4A95-A4B0-70507C4A054C}" name="CD102" dataDxfId="55"/>
+    <tableColumn id="75" xr3:uid="{87568FE0-3821-4389-864D-ABC580A2E877}" name="CD103" dataDxfId="54"/>
+    <tableColumn id="76" xr3:uid="{2DD99458-FCC2-4C32-91F2-AF99E074E68E}" name="CD104" dataDxfId="53"/>
+    <tableColumn id="77" xr3:uid="{6741D40A-B7DC-4119-B811-BB7EA40BD2DF}" name="CD105" dataDxfId="52"/>
+    <tableColumn id="78" xr3:uid="{8F633DA4-4842-4A83-A398-D280543D789A}" name="CD106" dataDxfId="51"/>
+    <tableColumn id="79" xr3:uid="{F36FEC86-7A41-4604-B610-DE26AE5E8170}" name="CD107" dataDxfId="50"/>
+    <tableColumn id="80" xr3:uid="{021E0F31-B797-4E59-ABAB-35247F5B11A0}" name="CD108" dataDxfId="49"/>
+    <tableColumn id="81" xr3:uid="{A004071B-0DFB-46DB-8037-24C903B09303}" name="CD201" dataDxfId="48"/>
+    <tableColumn id="82" xr3:uid="{99278668-612E-43A0-893B-9E25A67C74A3}" name="CD202" dataDxfId="47"/>
+    <tableColumn id="83" xr3:uid="{6B5A8EE3-5B75-4948-AC66-2D76A1175A61}" name="CD203" dataDxfId="46"/>
+    <tableColumn id="84" xr3:uid="{881A15AC-76D3-4A51-ADF8-E392A062C888}" name="CD204" dataDxfId="45"/>
+    <tableColumn id="85" xr3:uid="{541FEB8C-5BE5-4020-9C1F-9A0C7501D4BA}" name="CD205" dataDxfId="44"/>
+    <tableColumn id="86" xr3:uid="{9FFD705B-C4F2-441B-A17D-64D62C77A9AB}" name="CD206" dataDxfId="43"/>
+    <tableColumn id="87" xr3:uid="{FE86462B-494D-45C7-B532-1A5DA0847375}" name="CD207" dataDxfId="42"/>
+    <tableColumn id="88" xr3:uid="{77703B33-E70C-4395-95A7-9F60960AA026}" name="CP101" dataDxfId="41"/>
+    <tableColumn id="89" xr3:uid="{A8BF3D01-AC03-4F46-928E-36C9399967F0}" name="CP102" dataDxfId="40"/>
+    <tableColumn id="90" xr3:uid="{C24E21FD-7238-4D17-8845-43893BF8F4B5}" name="CP103" dataDxfId="39"/>
+    <tableColumn id="91" xr3:uid="{2CE5976A-A764-4ABB-8D98-9ED83C2A75E2}" name="CP104" dataDxfId="38"/>
+    <tableColumn id="92" xr3:uid="{262BD9F9-5ED3-4CE4-AD26-2AE8137A230E}" name="EN101" dataDxfId="37"/>
+    <tableColumn id="93" xr3:uid="{03C21A93-BC0F-4CA0-812C-BCECF9D70B6E}" name="SD101" dataDxfId="36"/>
+    <tableColumn id="95" xr3:uid="{7BFE62E8-CE37-4299-975B-3B802A854660}" name="SD102" dataDxfId="35"/>
+    <tableColumn id="96" xr3:uid="{8F223D40-1B18-4EF5-94D8-ED591F44BD58}" name="CO101" dataDxfId="34"/>
+    <tableColumn id="97" xr3:uid="{F5858F0C-A60D-4B75-82C6-725FDEF7FAB8}" name="CO102" dataDxfId="33"/>
+    <tableColumn id="98" xr3:uid="{DD32ABE4-CEEC-40A1-B926-CF0D3CD9F4CF}" name="DS101" dataDxfId="32"/>
+    <tableColumn id="99" xr3:uid="{9228D542-851C-4343-9279-D8BDA4A2E4A5}" name="DS102" dataDxfId="31"/>
+    <tableColumn id="100" xr3:uid="{DDC78852-440D-4835-8B79-A1496EC69420}" name="DS103" dataDxfId="30"/>
+    <tableColumn id="101" xr3:uid="{78120107-FFCF-4908-9A46-5AF11FB65C89}" name="IN101" dataDxfId="29"/>
+    <tableColumn id="102" xr3:uid="{34902EDC-12B2-4042-838F-B6C8D51E4EA8}" name="IN102" dataDxfId="28"/>
+    <tableColumn id="103" xr3:uid="{E22F1327-8EF8-4800-A2B8-094267E712A8}" name="WB101" dataDxfId="27"/>
+    <tableColumn id="104" xr3:uid="{59994C7A-31C9-46C8-BF22-1CE8A72462BB}" name="WB102" dataDxfId="26"/>
+    <tableColumn id="105" xr3:uid="{722FF378-F2DB-4E34-BA22-205CB28E432B}" name="WB103" dataDxfId="25"/>
+    <tableColumn id="106" xr3:uid="{BDB5915F-DA2E-4BC2-8F04-338D3C86DD66}" name="WB104" dataDxfId="24"/>
+    <tableColumn id="107" xr3:uid="{C066FA00-0C49-4E1D-B786-27371169241F}" name="WB105" dataDxfId="23"/>
+    <tableColumn id="108" xr3:uid="{0D8A82BF-FB3E-47E7-AECA-40063FD31061}" name="WB106" dataDxfId="22"/>
+    <tableColumn id="109" xr3:uid="{67856F1A-E12A-45DA-BF52-9E5E3C1B32FE}" name="WB107" dataDxfId="21"/>
+    <tableColumn id="110" xr3:uid="{12596572-763D-44F3-9AFF-CB599CCF10F4}" name="WB108" dataDxfId="20"/>
+    <tableColumn id="111" xr3:uid="{BB8C8EB5-B7D9-4DC2-9189-1D0AB86E0C53}" name="WB109" dataDxfId="19"/>
+    <tableColumn id="112" xr3:uid="{DB667C1C-CC76-4C61-95CD-0E0D59E9594B}" name="WB201" dataDxfId="18"/>
+    <tableColumn id="113" xr3:uid="{C40F1396-990F-45AB-A5E3-69573C3EBECF}" name="WB202" dataDxfId="17"/>
+    <tableColumn id="114" xr3:uid="{ABE7427A-8030-4331-927C-3E386BB34684}" name="WB203" dataDxfId="16"/>
+    <tableColumn id="115" xr3:uid="{9A5C6644-3830-4374-8EE8-B5DC30F51EF4}" name="WB204" dataDxfId="15"/>
+    <tableColumn id="116" xr3:uid="{BDF7F6BC-C213-4754-9A85-3D505D21CA94}" name="WB205" dataDxfId="14"/>
+    <tableColumn id="117" xr3:uid="{0996C05A-08B2-440E-9E91-1C844762F9F7}" name="WB206" dataDxfId="13"/>
+    <tableColumn id="118" xr3:uid="{46FEBBFC-3FC9-46B1-8F1E-F9E71E1DE735}" name="WB207" dataDxfId="12"/>
+    <tableColumn id="119" xr3:uid="{CB953BFE-8E1C-40DB-803B-A0DD0962ADD8}" name="WB301" dataDxfId="11"/>
+    <tableColumn id="120" xr3:uid="{5204FC1C-DA73-47A8-B0FC-1F06D0DBB2CC}" name="WB302" dataDxfId="10"/>
+    <tableColumn id="121" xr3:uid="{73C531B6-3DBA-4A44-81B7-2D4AF7454CEF}" name="WB303" dataDxfId="9"/>
+    <tableColumn id="122" xr3:uid="{7024255C-A29C-4AD4-B8B3-D5192F9BB395}" name="WB304" dataDxfId="8"/>
+    <tableColumn id="123" xr3:uid="{B68143E8-E277-4EDD-92F8-2E14A072ACC0}" name="WB305" dataDxfId="7"/>
+    <tableColumn id="124" xr3:uid="{5A425E72-2450-40B9-B866-AB8A1B8DEE54}" name="WB401" dataDxfId="6"/>
+    <tableColumn id="125" xr3:uid="{58F39DB6-8311-4B74-8EA1-29DB82C6E4E9}" name="WB402" dataDxfId="5"/>
+    <tableColumn id="126" xr3:uid="{3C50A0F6-0E25-4C86-9C6E-E1C6F0FAC933}" name="WB403" dataDxfId="4"/>
+    <tableColumn id="127" xr3:uid="{63F4D054-1BEE-4E65-AE7F-A3B557581BC2}" name="WB404" dataDxfId="3"/>
+    <tableColumn id="128" xr3:uid="{4C6CA186-1202-4882-9139-E00D7D2E8E74}" name="WB405" dataDxfId="2"/>
+    <tableColumn id="129" xr3:uid="{E1075747-9F5A-4EB2-A1A6-36B05AE8E923}" name="WB406" dataDxfId="1"/>
+    <tableColumn id="130" xr3:uid="{50691F4C-8549-4915-B1EA-C4B0DCEDC2C1}" name="I try to see my failings as part of the human condition." dataDxfId="0"/>
+    <tableColumn id="131" xr3:uid="{C4FFEB76-D65B-4A0D-953D-6F15E7201B3A}" name="My answers may be used for research purposes and connected with each other and with other study register data." dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DR17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DB1" workbookViewId="0">
-      <selection activeCell="DQ2" sqref="Q2:DQ9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1874,320 +1874,320 @@
       <c r="P2" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S2" s="6">
-        <v>3</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BF2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BJ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BQ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BS2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BU2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BV2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BX2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CA2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CB2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CC2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CD2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CF2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CG2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CL2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CM2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CN2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CO2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CP2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CQ2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CR2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CS2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CT2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CU2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CV2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CW2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CX2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CY2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CZ2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DA2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DB2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DC2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DD2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DE2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DF2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DG2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DH2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DI2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DJ2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DK2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DL2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DM2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DN2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DO2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DP2" s="6">
-        <v>1</v>
-      </c>
-      <c r="DQ2" s="6">
-        <v>1</v>
+      <c r="Q2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CG2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CK2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="CM2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="CN2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="CO2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="CP2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="CQ2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="CR2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="CS2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="CT2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CU2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CV2" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CW2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CX2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="CZ2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="DA2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="DB2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="DC2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="DD2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="DE2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="DF2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="DG2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="DH2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="DI2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="DJ2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="DK2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="DL2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="DM2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="DN2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="DO2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="DP2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="DQ2" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="DR2" t="s">
         <v>130</v>
@@ -4348,316 +4348,316 @@
         <v>129</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S9" s="6">
-        <v>4</v>
+        <v>138</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AC9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AF9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AG9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AH9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AJ9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AK9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AL9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AM9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AP9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AQ9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AS9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AU9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="AV9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AW9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="AX9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="AY9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AZ9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="BA9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BB9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BC9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BD9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BE9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="BF9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BG9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BH9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BI9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BJ9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="BK9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BL9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BM9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BN9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BO9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="BP9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BQ9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BR9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BS9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BT9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="BU9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BV9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="BW9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BX9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="BY9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="BZ9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="CA9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CB9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="CC9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="CD9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="CE9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="CF9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CG9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="CH9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="CI9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="CJ9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="CK9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CL9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="CM9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="CN9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="CO9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="CP9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CQ9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="CR9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="CS9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="CT9" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="CU9" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="CV9" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="CW9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="CX9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="CY9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="CZ9" s="6">
-        <v>1</v>
-      </c>
-      <c r="DA9" s="6">
-        <v>2</v>
-      </c>
-      <c r="DB9" s="6">
-        <v>3</v>
-      </c>
-      <c r="DC9" s="6">
-        <v>4</v>
-      </c>
-      <c r="DD9" s="6">
-        <v>5</v>
-      </c>
-      <c r="DE9" s="6">
-        <v>1</v>
-      </c>
-      <c r="DF9" s="6">
-        <v>2</v>
-      </c>
-      <c r="DG9" s="6">
-        <v>3</v>
-      </c>
-      <c r="DH9" s="6">
-        <v>4</v>
-      </c>
-      <c r="DI9" s="6">
-        <v>5</v>
-      </c>
-      <c r="DJ9" s="6">
-        <v>1</v>
-      </c>
-      <c r="DK9" s="6">
-        <v>2</v>
-      </c>
-      <c r="DL9" s="6">
-        <v>3</v>
-      </c>
-      <c r="DM9" s="6">
-        <v>4</v>
-      </c>
-      <c r="DN9" s="6">
-        <v>5</v>
-      </c>
-      <c r="DO9" s="6">
-        <v>1</v>
-      </c>
-      <c r="DP9" s="6">
-        <v>2</v>
-      </c>
-      <c r="DQ9" s="6">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="CZ9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="DA9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="DB9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="DC9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="DD9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="DE9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="DF9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="DG9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="DH9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="DI9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="DJ9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="DK9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="DL9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="DM9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="DN9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="DO9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="DP9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="DQ9" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="DR9" t="s">
         <v>130</v>
